--- a/data/prisons/prisons-covid-wi.xlsx
+++ b/data/prisons/prisons-covid-wi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\covid-wisconsin\data\prisons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A1C2BE99-08CD-4E47-A480-AB28CF5BBD6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CBD723C9-2DDF-4AFD-AB89-C6030F30B965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16874" yWindow="-118" windowWidth="15997" windowHeight="13641"/>
   </bookViews>
@@ -3521,7 +3521,7 @@
   <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -4202,7 +4202,7 @@
         <v>44.470500000000001</v>
       </c>
       <c r="C12">
-        <v>88.037199999999999</v>
+        <v>-88.037199999999999</v>
       </c>
       <c r="D12">
         <v>749</v>
@@ -4318,7 +4318,7 @@
         <v>44.305399999999999</v>
       </c>
       <c r="C14">
-        <v>90.790599999999998</v>
+        <v>-90.790599999999998</v>
       </c>
       <c r="D14">
         <v>837</v>
